--- a/cea/databases/DE/assemblies/SUPPLY.xlsx
+++ b/cea/databases/DE/assemblies/SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/assemblies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B57E32-63E6-3B47-99A6-CDD4A36F7BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DD4D62-9154-4575-970E-4192FD06E687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="1480" windowWidth="41340" windowHeight="24520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="1470" windowWidth="16200" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -46,19 +47,11 @@
   <commentList>
     <comment ref="A33" authorId="0" shapeId="0" xr:uid="{B4F5AB91-6F7C-483D-A592-89102691FFFB}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -73,19 +66,11 @@
   <commentList>
     <comment ref="A33" authorId="0" shapeId="0" xr:uid="{003A11DB-1C47-4897-99B3-6450868F736D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -93,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="156">
   <si>
     <t>Description</t>
   </si>
@@ -530,6 +515,9 @@
     <t>SUPPLY_ELECTRICITY_AS0</t>
   </si>
   <si>
+    <t>Swiss consumer energy mix</t>
+  </si>
+  <si>
     <t>SUPPLY_ELECTRICITY_AS1</t>
   </si>
   <si>
@@ -539,6 +527,9 @@
     <t>German consumer energy mix</t>
   </si>
   <si>
+    <t>SUPPLY_ELECTRICITY_AS2</t>
+  </si>
+  <si>
     <t>from https://ens.dk/en/our-services/projections-and-models/technology-data/technology-data-generation-electricity-and</t>
   </si>
   <si>
@@ -555,51 +546,6 @@
   </si>
   <si>
     <t>from https://ens.dk/en/our-services/projections-and-models/technology-data/technology-data-generation-electricity-and Exchange rate: 1 EUR to 1.11 Dollars</t>
-  </si>
-  <si>
-    <t>secondary_components</t>
-  </si>
-  <si>
-    <t>tertiary_components</t>
-  </si>
-  <si>
-    <t>primary_components</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>BO2</t>
-  </si>
-  <si>
-    <t>BO4</t>
-  </si>
-  <si>
-    <t>BO5</t>
-  </si>
-  <si>
-    <t>BO6</t>
-  </si>
-  <si>
-    <t>BO1</t>
-  </si>
-  <si>
-    <t>HP3</t>
-  </si>
-  <si>
-    <t>HP2</t>
-  </si>
-  <si>
-    <t>HP1</t>
-  </si>
-  <si>
-    <t>CH2</t>
-  </si>
-  <si>
-    <t>CT1</t>
-  </si>
-  <si>
-    <t>BO7</t>
   </si>
 </sst>
 </file>
@@ -610,7 +556,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,45 +572,38 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="65"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -690,19 +629,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,14 +655,8 @@
         <bgColor indexed="49"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -815,36 +737,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="59"/>
-      </left>
-      <right style="thin">
-        <color indexed="59"/>
-      </right>
-      <top style="thin">
-        <color indexed="59"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="59"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -852,7 +744,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -925,21 +817,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1256,1549 +1133,1214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="77.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>155</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="5">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="J2" s="6">
-        <v>20</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="G2" s="6">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="L2" s="6">
-        <v>5</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="I2" s="6">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8">
         <v>0.7</v>
       </c>
-      <c r="I3" s="8">
+      <c r="F3" s="8">
         <v>1560.1736079047005</v>
       </c>
-      <c r="J3" s="6">
-        <v>20</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="G3" s="6">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6">
         <v>3.5</v>
       </c>
-      <c r="L3" s="6">
-        <v>5</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="I3" s="6">
+        <v>5</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8">
         <v>0.7</v>
       </c>
-      <c r="I4" s="8">
+      <c r="F4" s="8">
         <v>383.62177486379176</v>
       </c>
-      <c r="J4" s="6">
-        <v>20</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="G4" s="6">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6">
         <v>3.5</v>
       </c>
-      <c r="L4" s="6">
-        <v>5</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="I4" s="6">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8">
         <v>0.7</v>
       </c>
-      <c r="I5" s="8">
+      <c r="F5" s="8">
         <v>277.33124018838311</v>
       </c>
-      <c r="J5" s="6">
-        <v>20</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="G5" s="6">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6">
         <v>3.5</v>
       </c>
-      <c r="L5" s="6">
-        <v>5</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8">
         <v>0.85</v>
       </c>
-      <c r="I6" s="8">
+      <c r="F6" s="8">
         <v>1284.8488535685769</v>
       </c>
-      <c r="J6" s="6">
-        <v>20</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="G6" s="6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6">
         <v>3.5</v>
       </c>
-      <c r="L6" s="6">
-        <v>5</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="I6" s="6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8">
         <v>0.85</v>
       </c>
-      <c r="I7" s="8">
+      <c r="F7" s="8">
         <v>315.92381459371086</v>
       </c>
-      <c r="J7" s="6">
-        <v>20</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="G7" s="6">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6">
         <v>3.5</v>
       </c>
-      <c r="L7" s="6">
-        <v>5</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="I7" s="6">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8">
         <v>0.85</v>
       </c>
-      <c r="I8" s="8">
+      <c r="F8" s="8">
         <v>228.39043309631546</v>
       </c>
-      <c r="J8" s="6">
-        <v>20</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="G8" s="6">
+        <v>20</v>
+      </c>
+      <c r="H8" s="6">
         <v>3.5</v>
       </c>
-      <c r="L8" s="6">
-        <v>5</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="I8" s="6">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8">
         <v>0.92</v>
       </c>
-      <c r="I9" s="8">
+      <c r="F9" s="8">
         <v>1187.0886147100982</v>
       </c>
-      <c r="J9" s="6">
-        <v>20</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="G9" s="6">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6">
         <v>3.5</v>
       </c>
-      <c r="L9" s="6">
-        <v>5</v>
-      </c>
-      <c r="M9" s="9" t="s">
+      <c r="I9" s="6">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8">
         <v>0.93</v>
       </c>
-      <c r="I10" s="8">
+      <c r="F10" s="8">
         <v>288.74757247812278</v>
       </c>
-      <c r="J10" s="6">
-        <v>20</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="G10" s="6">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6">
         <v>3.5</v>
       </c>
-      <c r="L10" s="6">
-        <v>5</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="I10" s="6">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8">
         <v>0.93</v>
       </c>
-      <c r="I11" s="8">
+      <c r="F11" s="8">
         <v>208.74394422781521</v>
       </c>
-      <c r="J11" s="6">
-        <v>20</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="G11" s="6">
+        <v>20</v>
+      </c>
+      <c r="H11" s="6">
         <v>3.5</v>
       </c>
-      <c r="L11" s="6">
-        <v>5</v>
-      </c>
-      <c r="M11" s="9" t="s">
+      <c r="I11" s="6">
+        <v>5</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8">
         <v>0.7</v>
       </c>
-      <c r="I12" s="8">
+      <c r="F12" s="8">
         <v>771.18847539015621</v>
       </c>
-      <c r="J12" s="6">
-        <v>20</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="G12" s="6">
+        <v>20</v>
+      </c>
+      <c r="H12" s="6">
         <v>3</v>
       </c>
-      <c r="L12" s="6">
-        <v>5</v>
-      </c>
-      <c r="M12" s="7" t="s">
+      <c r="I12" s="6">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="D13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8">
         <v>0.7</v>
       </c>
-      <c r="I13" s="8">
+      <c r="F13" s="8">
         <v>217.51964170283497</v>
       </c>
-      <c r="J13" s="6">
-        <v>20</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="G13" s="6">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6">
         <v>3</v>
       </c>
-      <c r="L13" s="6">
-        <v>5</v>
-      </c>
-      <c r="M13" s="9" t="s">
+      <c r="I13" s="6">
+        <v>5</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="D14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8">
         <v>0.7</v>
       </c>
-      <c r="I14" s="8">
+      <c r="F14" s="8">
         <v>192.79711884753905</v>
       </c>
-      <c r="J14" s="6">
-        <v>20</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="G14" s="6">
+        <v>20</v>
+      </c>
+      <c r="H14" s="6">
         <v>3</v>
       </c>
-      <c r="L14" s="6">
-        <v>5</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="I14" s="6">
+        <v>5</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8">
         <v>0.85</v>
       </c>
-      <c r="I15" s="8">
+      <c r="F15" s="8">
         <v>635.09639149777558</v>
       </c>
-      <c r="J15" s="6">
-        <v>20</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="G15" s="6">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6">
         <v>3</v>
       </c>
-      <c r="L15" s="6">
-        <v>5</v>
-      </c>
-      <c r="M15" s="9" t="s">
+      <c r="I15" s="6">
+        <v>5</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8">
         <v>0.85</v>
       </c>
-      <c r="I16" s="8">
+      <c r="F16" s="8">
         <v>179.13382257880528</v>
       </c>
-      <c r="J16" s="6">
-        <v>20</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="G16" s="6">
+        <v>20</v>
+      </c>
+      <c r="H16" s="6">
         <v>3</v>
       </c>
-      <c r="L16" s="6">
-        <v>5</v>
-      </c>
-      <c r="M16" s="7" t="s">
+      <c r="I16" s="6">
+        <v>5</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="D17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8">
         <v>0.85</v>
       </c>
-      <c r="I17" s="8">
+      <c r="F17" s="8">
         <v>158.7740978744439</v>
       </c>
-      <c r="J17" s="6">
-        <v>20</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="G17" s="6">
+        <v>20</v>
+      </c>
+      <c r="H17" s="6">
         <v>3</v>
       </c>
-      <c r="L17" s="6">
-        <v>5</v>
-      </c>
-      <c r="M17" s="9" t="s">
+      <c r="I17" s="6">
+        <v>5</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="D18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8">
         <v>0.93</v>
       </c>
-      <c r="I18" s="8">
+      <c r="F18" s="8">
         <v>580.46444384205302</v>
       </c>
-      <c r="J18" s="6">
-        <v>20</v>
-      </c>
-      <c r="K18" s="6">
+      <c r="G18" s="6">
+        <v>20</v>
+      </c>
+      <c r="H18" s="6">
         <v>3</v>
       </c>
-      <c r="L18" s="6">
-        <v>5</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="D19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="8">
         <v>0.95</v>
       </c>
-      <c r="I19" s="8">
+      <c r="F19" s="8">
         <v>160.27763072840472</v>
       </c>
-      <c r="J19" s="6">
-        <v>20</v>
-      </c>
-      <c r="K19" s="6">
+      <c r="G19" s="6">
+        <v>20</v>
+      </c>
+      <c r="H19" s="6">
         <v>3</v>
       </c>
-      <c r="L19" s="6">
-        <v>5</v>
-      </c>
-      <c r="M19" s="9" t="s">
+      <c r="I19" s="6">
+        <v>5</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="D20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="8">
         <v>0.95</v>
       </c>
-      <c r="I20" s="8">
+      <c r="F20" s="8">
         <v>142.0610349402919</v>
       </c>
-      <c r="J20" s="6">
-        <v>20</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="G20" s="6">
+        <v>20</v>
+      </c>
+      <c r="H20" s="6">
         <v>3</v>
       </c>
-      <c r="L20" s="6">
-        <v>5</v>
-      </c>
-      <c r="M20" s="9" t="s">
+      <c r="I20" s="6">
+        <v>5</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="D21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="8">
         <v>0.9</v>
       </c>
-      <c r="I21" s="8">
+      <c r="F21" s="8">
         <v>1208.8544135602958</v>
       </c>
-      <c r="J21" s="6">
-        <v>20</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="G21" s="6">
+        <v>20</v>
+      </c>
+      <c r="H21" s="6">
         <v>6</v>
       </c>
-      <c r="L21" s="6">
-        <v>5</v>
-      </c>
-      <c r="M21" s="9" t="s">
+      <c r="I21" s="6">
+        <v>5</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="8">
+      <c r="D22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="8">
         <v>0.81</v>
       </c>
-      <c r="I22" s="8">
+      <c r="F22" s="8">
         <v>597.24995411269924</v>
       </c>
-      <c r="J22" s="6">
-        <v>20</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="G22" s="6">
+        <v>20</v>
+      </c>
+      <c r="H22" s="6">
         <v>6</v>
       </c>
-      <c r="L22" s="6">
-        <v>5</v>
-      </c>
-      <c r="M22" s="9" t="s">
+      <c r="I22" s="6">
+        <v>5</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="8">
+      <c r="D23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="8">
         <v>0.81</v>
       </c>
-      <c r="I23" s="8">
+      <c r="F23" s="8">
         <v>416.03714078223885</v>
       </c>
-      <c r="J23" s="6">
-        <v>20</v>
-      </c>
-      <c r="K23" s="6">
+      <c r="G23" s="6">
+        <v>20</v>
+      </c>
+      <c r="H23" s="6">
         <v>6</v>
       </c>
-      <c r="L23" s="6">
-        <v>5</v>
-      </c>
-      <c r="M23" s="9" t="s">
+      <c r="I23" s="6">
+        <v>5</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="D24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="8">
         <v>4.25</v>
       </c>
-      <c r="I24" s="8">
+      <c r="F24" s="8">
         <v>845.3319763891717</v>
       </c>
-      <c r="J24" s="6">
-        <v>20</v>
-      </c>
-      <c r="K24" s="13">
+      <c r="G24" s="6">
+        <v>20</v>
+      </c>
+      <c r="H24" s="13">
         <v>0.58004640371229699</v>
       </c>
-      <c r="L24" s="6">
-        <v>5</v>
-      </c>
-      <c r="M24" s="9" t="s">
+      <c r="I24" s="6">
+        <v>5</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="8">
+      <c r="D25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="8">
         <v>4.25</v>
       </c>
-      <c r="I25" s="8">
+      <c r="F25" s="8">
         <v>520.73234276409528</v>
       </c>
-      <c r="J25" s="6">
-        <v>20</v>
-      </c>
-      <c r="K25" s="13">
+      <c r="G25" s="6">
+        <v>20</v>
+      </c>
+      <c r="H25" s="13">
         <v>0.94161958568738224</v>
       </c>
-      <c r="L25" s="6">
-        <v>5</v>
-      </c>
-      <c r="M25" s="9" t="s">
+      <c r="I25" s="6">
+        <v>5</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="8">
+      <c r="D26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="8">
         <v>4.25</v>
       </c>
-      <c r="I26" s="8">
+      <c r="F26" s="8">
         <v>324.59963362507636</v>
       </c>
-      <c r="J26" s="6">
-        <v>20</v>
-      </c>
-      <c r="K26" s="13">
+      <c r="G26" s="6">
+        <v>20</v>
+      </c>
+      <c r="H26" s="13">
         <v>1.5105740181268883</v>
       </c>
-      <c r="L26" s="6">
-        <v>5</v>
-      </c>
-      <c r="M26" s="9" t="s">
+      <c r="I26" s="6">
+        <v>5</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="8">
+      <c r="D27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="8">
         <v>3.6</v>
       </c>
-      <c r="I27" s="8">
+      <c r="F27" s="8">
         <v>554.16570549788537</v>
       </c>
-      <c r="J27" s="6">
-        <v>20</v>
-      </c>
-      <c r="K27" s="13">
+      <c r="G27" s="6">
+        <v>20</v>
+      </c>
+      <c r="H27" s="13">
         <v>1.1838440111420612</v>
       </c>
-      <c r="L27" s="6">
-        <v>5</v>
-      </c>
-      <c r="M27" s="9" t="s">
+      <c r="I27" s="6">
+        <v>5</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="D28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="8">
         <v>3.6</v>
       </c>
-      <c r="I28" s="8">
+      <c r="F28" s="8">
         <v>341.52970011534023</v>
       </c>
-      <c r="J28" s="6">
-        <v>20</v>
-      </c>
-      <c r="K28" s="13">
+      <c r="G28" s="6">
+        <v>20</v>
+      </c>
+      <c r="H28" s="13">
         <v>1.9209039548022599</v>
       </c>
-      <c r="L28" s="6">
-        <v>5</v>
-      </c>
-      <c r="M28" s="9" t="s">
+      <c r="I28" s="6">
+        <v>5</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="D29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="8">
         <v>3.6</v>
       </c>
-      <c r="I29" s="8">
+      <c r="F29" s="8">
         <v>212.89456459054207</v>
       </c>
-      <c r="J29" s="6">
-        <v>20</v>
-      </c>
-      <c r="K29" s="13">
+      <c r="G29" s="6">
+        <v>20</v>
+      </c>
+      <c r="H29" s="13">
         <v>3.0815523773270255</v>
       </c>
-      <c r="L29" s="6">
-        <v>5</v>
-      </c>
-      <c r="M29" s="9" t="s">
+      <c r="I29" s="6">
+        <v>5</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="8">
+      <c r="D30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="8">
         <v>2.7</v>
       </c>
-      <c r="I30" s="8">
+      <c r="F30" s="8">
         <v>200</v>
       </c>
-      <c r="J30" s="6">
-        <v>20</v>
-      </c>
-      <c r="K30" s="6">
+      <c r="G30" s="6">
+        <v>20</v>
+      </c>
+      <c r="H30" s="6">
         <v>1</v>
       </c>
-      <c r="L30" s="6">
-        <v>5</v>
-      </c>
-      <c r="M30" s="7" t="s">
+      <c r="I30" s="6">
+        <v>5</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="8">
+      <c r="D31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="8">
         <v>3</v>
       </c>
-      <c r="I31" s="8">
+      <c r="F31" s="8">
         <v>200</v>
       </c>
-      <c r="J31" s="6">
-        <v>20</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="G31" s="6">
+        <v>20</v>
+      </c>
+      <c r="H31" s="6">
         <v>1</v>
       </c>
-      <c r="L31" s="6">
-        <v>5</v>
-      </c>
-      <c r="M31" s="7" t="s">
+      <c r="I31" s="6">
+        <v>5</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="8">
+      <c r="D32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="8">
         <v>0.6</v>
       </c>
-      <c r="I32" s="8">
+      <c r="F32" s="8">
         <v>367</v>
       </c>
-      <c r="J32" s="6">
-        <v>20</v>
-      </c>
-      <c r="K32" s="6">
+      <c r="G32" s="6">
+        <v>20</v>
+      </c>
+      <c r="H32" s="6">
         <v>1</v>
       </c>
-      <c r="L32" s="6">
-        <v>5</v>
-      </c>
-      <c r="M32" s="9" t="s">
+      <c r="I32" s="6">
+        <v>5</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="D33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="8">
         <v>0.9</v>
       </c>
-      <c r="I33" s="8">
+      <c r="F33" s="8">
         <v>200</v>
       </c>
-      <c r="J33" s="6">
-        <v>20</v>
-      </c>
-      <c r="K33" s="6">
+      <c r="G33" s="6">
+        <v>20</v>
+      </c>
+      <c r="H33" s="6">
         <v>1</v>
       </c>
-      <c r="L33" s="6">
-        <v>5</v>
-      </c>
-      <c r="M33" s="7" t="s">
+      <c r="I33" s="6">
+        <v>5</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="8">
+      <c r="D34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="8">
         <v>0.6</v>
       </c>
-      <c r="I34" s="8">
+      <c r="F34" s="8">
         <v>200</v>
       </c>
-      <c r="J34" s="6">
-        <v>20</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="G34" s="6">
+        <v>20</v>
+      </c>
+      <c r="H34" s="6">
         <v>1</v>
       </c>
-      <c r="L34" s="6">
-        <v>5</v>
-      </c>
-      <c r="M34" s="7" t="s">
+      <c r="I34" s="6">
+        <v>5</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F35" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="22">
+      <c r="E35" s="22">
         <f>1.03 * 950/1050</f>
         <v>0.9319047619047619</v>
       </c>
-      <c r="I35" s="8">
+      <c r="F35" s="8">
         <f>60 * 1.11</f>
         <v>66.600000000000009</v>
       </c>
-      <c r="J35" s="6">
+      <c r="G35" s="6">
         <v>25</v>
       </c>
-      <c r="K35" s="6">
+      <c r="H35" s="6">
         <v>1</v>
       </c>
-      <c r="L35" s="6">
-        <v>5</v>
-      </c>
-      <c r="M35" s="21" t="s">
+      <c r="I35" s="6">
+        <v>5</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>150</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F36" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H36" s="8">
+      <c r="E36" s="8">
         <v>3.5</v>
       </c>
-      <c r="I36" s="8">
+      <c r="F36" s="8">
         <f>910*1.11</f>
         <v>1010.1000000000001</v>
       </c>
-      <c r="J36" s="6">
+      <c r="G36" s="6">
         <v>25</v>
       </c>
-      <c r="K36" s="6">
+      <c r="H36" s="6">
         <v>1</v>
       </c>
-      <c r="L36" s="6">
-        <v>5</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="I36" s="6">
+        <v>5</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H37" s="8">
+      <c r="E37" s="8">
         <v>3.4</v>
       </c>
-      <c r="I37" s="8">
+      <c r="F37" s="8">
         <f>510*1.1</f>
         <v>561</v>
       </c>
-      <c r="J37" s="6">
+      <c r="G37" s="6">
         <v>25</v>
       </c>
-      <c r="K37" s="6">
+      <c r="H37" s="6">
         <v>1</v>
       </c>
-      <c r="L37" s="6">
-        <v>5</v>
-      </c>
-      <c r="M37" s="24" t="s">
-        <v>153</v>
+      <c r="I37" s="6">
+        <v>5</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -2813,20 +2355,20 @@
       <selection activeCell="C35" sqref="C35:J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="77.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +2400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2890,7 +2432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -2922,7 +2464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2954,7 +2496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2986,7 +2528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3018,7 +2560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -3050,7 +2592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -3082,7 +2624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3114,7 +2656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3146,7 +2688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3178,7 +2720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -3210,7 +2752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -3242,7 +2784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3274,7 +2816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -3306,7 +2848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -3338,7 +2880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -3370,7 +2912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -3402,7 +2944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -3434,7 +2976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -3466,7 +3008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
@@ -3498,7 +3040,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
@@ -3530,7 +3072,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
@@ -3562,7 +3104,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -3594,7 +3136,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -3626,7 +3168,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -3658,7 +3200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -3690,7 +3232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -3722,7 +3264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -3754,7 +3296,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -3786,7 +3328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -3818,7 +3360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -3850,7 +3392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -3882,7 +3424,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,7 +3456,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -3944,10 +3486,10 @@
         <v>5</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -3976,10 +3518,10 @@
         <v>5</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -4008,7 +3550,7 @@
         <v>5</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4020,287 +3562,233 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>155</v>
+      <c r="C1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="J2" s="5">
+      <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="K2" s="6">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="H2" s="6">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="6">
-        <v>5</v>
-      </c>
-      <c r="N2" s="7" t="s">
+      <c r="J2" s="6">
+        <v>5</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8">
         <v>2.7</v>
       </c>
-      <c r="J3" s="8">
+      <c r="G3" s="8">
         <v>200</v>
       </c>
-      <c r="K3" s="6">
-        <v>20</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="H3" s="6">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6">
         <v>1</v>
       </c>
-      <c r="M3" s="6">
-        <v>5</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="J3" s="6">
+        <v>5</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8">
         <v>3</v>
       </c>
-      <c r="J4" s="8">
+      <c r="G4" s="8">
         <v>200</v>
       </c>
-      <c r="K4" s="6">
-        <v>20</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="H4" s="6">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="M4" s="6">
-        <v>5</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="J4" s="6">
+        <v>5</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="4">
+      <c r="F5" s="4">
         <v>3.2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="G5" s="8">
         <v>200</v>
       </c>
-      <c r="K5" s="6">
-        <v>20</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="H5" s="6">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6">
         <v>1</v>
       </c>
-      <c r="M5" s="6">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7" t="s">
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="7">
+      <c r="F6" s="7">
         <v>2.8</v>
       </c>
-      <c r="J6" s="8">
+      <c r="G6" s="8">
         <v>200</v>
       </c>
-      <c r="K6" s="6">
-        <v>20</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="H6" s="6">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6">
         <v>1</v>
       </c>
-      <c r="M6" s="6">
-        <v>5</v>
-      </c>
-      <c r="N6" s="7" t="s">
+      <c r="J6" s="6">
+        <v>5</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4312,26 +3800,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="70.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4363,7 +3851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4395,21 +3883,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>145</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E3" s="19">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="F3" s="20">
         <v>1</v>
@@ -4424,7 +3912,39 @@
         <v>5</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>151</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.94</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
+        <v>20</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
+        <v>5</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
